--- a/REVER_DailyTracker_20200907.xlsx
+++ b/REVER_DailyTracker_20200907.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\September\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209AF608-00C7-4CC7-93D3-DBE006BF9DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F9116C-8AD2-485F-990E-176B359EB95C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="149">
   <si>
     <t>Task</t>
   </si>
@@ -527,6 +521,12 @@
   </si>
   <si>
     <t>1. Downloading InvoicePDF and Excel  files has been done for the task of InvoicePDF and InvoiceExcel</t>
+  </si>
+  <si>
+    <t>VASTU</t>
+  </si>
+  <si>
+    <t>Testing Issues Fix  and New enhancement</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +557,28 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -635,10 +657,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -680,9 +705,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{E25CBEFC-84F7-40E3-B561-457316130246}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -997,22 +1030,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+    <sheetView topLeftCell="A298" workbookViewId="0">
       <selection activeCell="G310" sqref="G310"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1033,7 +1066,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -1043,8 +1076,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1056,7 +1089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -1067,10 +1100,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -1084,9 +1117,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -1100,9 +1133,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1116,8 +1149,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -1134,19 +1167,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -1164,13 +1197,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1198,7 +1231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1206,7 +1239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1214,12 +1247,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1227,7 +1260,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1238,7 +1271,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1249,7 +1282,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1260,12 +1293,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1276,7 +1309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1287,12 +1320,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1300,7 +1333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1308,7 +1341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1316,7 +1349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1324,12 +1357,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1337,7 +1370,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1345,7 +1378,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1353,7 +1386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1361,12 +1394,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1374,7 +1407,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1382,7 +1415,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1390,7 +1423,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1398,7 +1431,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1406,12 +1439,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1419,7 +1452,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1427,7 +1460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1435,7 +1468,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1443,7 +1476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1451,12 +1484,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1464,7 +1497,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1472,7 +1505,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1480,7 +1513,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1488,7 +1521,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1496,7 +1529,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1504,7 +1537,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1512,12 +1545,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1525,7 +1558,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1533,12 +1566,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1546,22 +1579,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1569,7 +1602,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:7" ht="30">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1577,7 +1610,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:7">
       <c r="D173" t="s">
         <v>30</v>
       </c>
@@ -1585,7 +1618,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:7">
       <c r="D177" t="s">
         <v>30</v>
       </c>
@@ -1593,12 +1626,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:7">
       <c r="G178" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:7" ht="45">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1606,7 +1639,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:7">
       <c r="D184" t="s">
         <v>30</v>
       </c>
@@ -1614,7 +1647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:7">
       <c r="D186" t="s">
         <v>85</v>
       </c>
@@ -1622,17 +1655,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:7">
       <c r="G187" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:7">
       <c r="G188" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:7">
       <c r="D190" t="s">
         <v>85</v>
       </c>
@@ -1640,7 +1673,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:7">
       <c r="D193" t="s">
         <v>85</v>
       </c>
@@ -1648,17 +1681,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:7">
       <c r="G194" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:7">
       <c r="D196" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:7">
       <c r="D199" t="s">
         <v>85</v>
       </c>
@@ -1666,12 +1699,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:7">
       <c r="G200" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:7">
       <c r="D203" t="s">
         <v>85</v>
       </c>
@@ -1679,27 +1712,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:7">
       <c r="G204" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="207" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:7">
       <c r="D207" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:7">
       <c r="G208" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:7">
       <c r="G209" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:7">
       <c r="D211" t="s">
         <v>85</v>
       </c>
@@ -1707,12 +1740,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:7">
       <c r="G212" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="216" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:7" ht="60">
       <c r="D216" t="s">
         <v>85</v>
       </c>
@@ -1720,7 +1753,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:7">
       <c r="D220" t="s">
         <v>85</v>
       </c>
@@ -1728,12 +1761,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:7">
       <c r="G221" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:7">
       <c r="D225" t="s">
         <v>85</v>
       </c>
@@ -1741,7 +1774,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="228" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:7">
       <c r="D228" t="s">
         <v>85</v>
       </c>
@@ -1749,12 +1782,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:7">
       <c r="G229" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="231" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:7">
       <c r="D231" t="s">
         <v>105</v>
       </c>
@@ -1762,7 +1795,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="234" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:7">
       <c r="D234" t="s">
         <v>107</v>
       </c>
@@ -1770,7 +1803,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="236" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:7">
       <c r="D236" t="s">
         <v>108</v>
       </c>
@@ -1778,17 +1811,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="237" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:7">
       <c r="G237" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="238" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:7">
       <c r="G238" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="241" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:7">
       <c r="D241" t="s">
         <v>105</v>
       </c>
@@ -1796,12 +1829,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="242" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:7">
       <c r="G242" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="245" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:7">
       <c r="D245" t="s">
         <v>108</v>
       </c>
@@ -1809,7 +1842,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="248" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:7">
       <c r="D248" t="s">
         <v>108</v>
       </c>
@@ -1817,12 +1850,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="249" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:7">
       <c r="G249" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="252" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:7">
       <c r="D252" t="s">
         <v>108</v>
       </c>
@@ -1830,17 +1863,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="253" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:7">
       <c r="G253" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="254" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:7">
       <c r="G254" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:7">
       <c r="D257" t="s">
         <v>121</v>
       </c>
@@ -1848,7 +1881,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="260" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:7">
       <c r="D260" t="s">
         <v>108</v>
       </c>
@@ -1856,12 +1889,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="261" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:7">
       <c r="G261" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="264" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:7">
       <c r="D264" t="s">
         <v>108</v>
       </c>
@@ -1869,7 +1902,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="267" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:7">
       <c r="D267" t="s">
         <v>108</v>
       </c>
@@ -1877,7 +1910,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="271" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:7">
       <c r="D271" t="s">
         <v>108</v>
       </c>
@@ -1885,7 +1918,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="275" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:7">
       <c r="D275" t="s">
         <v>108</v>
       </c>
@@ -1893,12 +1926,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="276" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:7">
       <c r="G276" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="280" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:7">
       <c r="D280" t="s">
         <v>108</v>
       </c>
@@ -1906,12 +1939,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:7">
       <c r="G281" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="283" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:7">
       <c r="D283" t="s">
         <v>108</v>
       </c>
@@ -1919,12 +1952,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:7">
       <c r="G284" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="288" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:7">
       <c r="D288" t="s">
         <v>108</v>
       </c>
@@ -1932,12 +1965,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="289" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:7">
       <c r="G289" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="292" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:7" ht="45">
       <c r="D292" t="s">
         <v>108</v>
       </c>
@@ -1945,7 +1978,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="295" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:7">
       <c r="D295" t="s">
         <v>107</v>
       </c>
@@ -1953,17 +1986,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="296" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:7">
       <c r="G296" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="297" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:7">
       <c r="G297" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="300" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:7">
       <c r="D300" t="s">
         <v>140</v>
       </c>
@@ -1971,7 +2004,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="302" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:7">
       <c r="D302" t="s">
         <v>108</v>
       </c>
@@ -1979,7 +2012,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="304" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:7">
       <c r="D304" t="s">
         <v>108</v>
       </c>
@@ -1987,7 +2020,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="307" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:7">
       <c r="D307" t="s">
         <v>108</v>
       </c>
@@ -1995,12 +2028,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="308" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:7">
       <c r="G308" s="24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="310" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:7">
       <c r="D310" t="s">
         <v>108</v>
       </c>
@@ -2023,18 +2056,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2057,7 +2090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2066,7 +2099,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2075,46 +2108,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2131,22 +2164,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2169,16 +2202,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25">
+        <v>44081</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>148</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2187,46 +2228,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2247,18 +2288,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2281,7 +2322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2290,7 +2331,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2299,46 +2340,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2359,18 +2400,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2393,7 +2434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2402,7 +2443,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2411,46 +2452,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2471,18 +2512,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2505,7 +2546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2526,7 +2567,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2535,46 +2576,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2595,18 +2636,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2629,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2638,7 +2679,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2647,46 +2688,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2707,18 +2748,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2741,7 +2782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2750,7 +2791,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2759,46 +2800,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2819,18 +2860,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2853,7 +2894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2862,7 +2903,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2871,46 +2912,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2931,18 +2972,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2965,7 +3006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2974,7 +3015,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2983,46 +3024,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200907.xlsx
+++ b/REVER_DailyTracker_20200907.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8710A1D3-0502-4B6F-8A11-3FEC1B63EE81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34C722D-5BC5-40ED-BCA3-9873E8F6E941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10596" yWindow="408" windowWidth="12444" windowHeight="11952" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve"> mobile view in progress.                                                                  </t>
+  </si>
+  <si>
+    <t>Sony-QMVAR</t>
+  </si>
+  <si>
+    <t>RMS Invoice captcha integration with GOOGLE API</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1227,9 +1233,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.6</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1297,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
